--- a/data/BasketAranjuez/basket_aranjuez.xlsx
+++ b/data/BasketAranjuez/basket_aranjuez.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,31 +631,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>46.72</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
       <c r="J3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -664,37 +664,37 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="R3" t="n">
-        <v>55.57</v>
+        <v>54.18</v>
       </c>
       <c r="S3" t="n">
-        <v>55.57</v>
+        <v>54.18</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>33.33</v>
+        <v>37.5</v>
       </c>
       <c r="V3" t="n">
         <v>85</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -704,70 +704,70 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
         <v>10</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>44.53</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
         <v>7</v>
       </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="R4" t="n">
-        <v>21.67</v>
+        <v>21.25</v>
       </c>
       <c r="S4" t="n">
-        <v>30</v>
+        <v>22.5</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="U4" t="n">
-        <v>33.33</v>
+        <v>37.5</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>49.25</v>
+        <v>68.37</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -883,37 +883,37 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>38.87</v>
+        <v>54.15</v>
       </c>
       <c r="S6" t="n">
-        <v>38.87</v>
+        <v>54.15</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>16.67</v>
+        <v>25</v>
       </c>
       <c r="V6" t="n">
         <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -926,10 +926,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -938,55 +938,55 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>53.57</v>
+        <v>76.2</v>
       </c>
       <c r="H7" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K7" t="n">
         <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N7" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
       </c>
       <c r="P7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R7" t="n">
-        <v>47.33</v>
+        <v>40.5</v>
       </c>
       <c r="S7" t="n">
-        <v>78.33</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="T7" t="n">
-        <v>32.4</v>
+        <v>24.3</v>
       </c>
       <c r="U7" t="n">
-        <v>64.43000000000001</v>
+        <v>48.32</v>
       </c>
       <c r="V7" t="n">
         <v>90</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -996,70 +996,70 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
-        <v>5</v>
-      </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>64.23</v>
+        <v>90.52</v>
       </c>
       <c r="H8" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
+        <v>12</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12</v>
+      </c>
+      <c r="L8" t="n">
+        <v>34</v>
+      </c>
+      <c r="M8" t="n">
+        <v>16</v>
+      </c>
+      <c r="N8" t="n">
+        <v>46</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" t="n">
         <v>7</v>
       </c>
-      <c r="K8" t="n">
-        <v>9</v>
-      </c>
-      <c r="L8" t="n">
-        <v>23</v>
-      </c>
-      <c r="M8" t="n">
-        <v>11</v>
-      </c>
-      <c r="N8" t="n">
-        <v>30</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
       <c r="Q8" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>39.03</v>
+        <v>37.08</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>28.75</v>
       </c>
       <c r="T8" t="n">
-        <v>40.33</v>
+        <v>37.08</v>
       </c>
       <c r="U8" t="n">
-        <v>44.43</v>
+        <v>50</v>
       </c>
       <c r="V8" t="n">
         <v>14</v>
       </c>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1069,14 +1069,14 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
         <v>5</v>
       </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
@@ -1084,55 +1084,55 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>33.2</v>
+        <v>47.82</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="R9" t="n">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>8.32</v>
       </c>
       <c r="T9" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="V9" t="n">
         <v>87</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1142,104 +1142,104 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>46.13</v>
+        <v>71.72</v>
       </c>
       <c r="H10" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
-        <v>70.47</v>
+        <v>61.18</v>
       </c>
       <c r="S10" t="n">
-        <v>73.8</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>75</v>
+        <v>68.75</v>
       </c>
       <c r="V10" t="n">
         <v>16</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Nico</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>12.17</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1275,71 +1275,71 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pete</t>
+          <t>Oscar</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>26.53</v>
+        <v>12.17</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="R12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="S12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="W12" t="n">
         <v>2</v>
@@ -1357,71 +1357,71 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Raúl</t>
+          <t>Pete</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>42.87</v>
+        <v>32.3</v>
       </c>
       <c r="H13" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>44.77</v>
+        <v>26.67</v>
       </c>
       <c r="S13" t="n">
-        <v>77.77</v>
+        <v>26.67</v>
       </c>
       <c r="T13" t="n">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>47.23</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W13" t="n">
         <v>3</v>
@@ -1430,17 +1430,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rubén</t>
+          <t>Raúl</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -1449,128 +1449,201 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>27.23</v>
+        <v>42.87</v>
       </c>
       <c r="H14" t="n">
+        <v>43</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
         <v>5</v>
       </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3</v>
-      </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="R14" t="n">
-        <v>50</v>
+        <v>44.77</v>
       </c>
       <c r="S14" t="n">
-        <v>66.7</v>
+        <v>77.77</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="U14" t="n">
-        <v>25</v>
+        <v>47.23</v>
       </c>
       <c r="V14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Rubén</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>25</v>
+      </c>
+      <c r="S15" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>8</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Subra</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-      <c r="G15" t="n">
-        <v>60.38</v>
-      </c>
-      <c r="H15" t="n">
-        <v>34</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" t="n">
+        <v>24</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>93.72</v>
+      </c>
+      <c r="H16" t="n">
+        <v>44</v>
+      </c>
+      <c r="I16" t="n">
+        <v>16</v>
+      </c>
+      <c r="J16" t="n">
+        <v>30</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>16</v>
+      </c>
+      <c r="N16" t="n">
+        <v>31</v>
+      </c>
+      <c r="O16" t="n">
         <v>12</v>
       </c>
-      <c r="J15" t="n">
+      <c r="P16" t="n">
         <v>22</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>12</v>
-      </c>
-      <c r="N15" t="n">
-        <v>23</v>
-      </c>
-      <c r="O15" t="n">
-        <v>10</v>
-      </c>
-      <c r="P15" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R15" t="n">
-        <v>55</v>
-      </c>
-      <c r="S15" t="n">
-        <v>57.23</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>51</v>
-      </c>
-      <c r="V15" t="n">
+      <c r="Q16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>53.75</v>
+      </c>
+      <c r="S16" t="n">
+        <v>55.42</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="V16" t="n">
         <v>93</v>
       </c>
-      <c r="W15" t="n">
-        <v>3</v>
+      <c r="W16" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1636,28 +1709,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80.66666666666667</v>
+        <v>74.5</v>
       </c>
       <c r="B2" t="n">
-        <v>53.66666666666666</v>
+        <v>55.75</v>
       </c>
       <c r="C2" t="n">
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>29.33333333333333</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>50.33333333333334</v>
+        <v>51</v>
       </c>
       <c r="F2" t="n">
-        <v>7.666666666666667</v>
+        <v>7.5</v>
       </c>
       <c r="G2" t="n">
-        <v>21.33333333333333</v>
+        <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>29</v>
+        <v>31.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/BasketAranjuez/basket_aranjuez.xlsx
+++ b/data/BasketAranjuez/basket_aranjuez.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,104 +704,104 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>94.93000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
         <v>15</v>
       </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
         <v>10</v>
       </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6</v>
-      </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N4" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>21.25</v>
+        <v>23.66</v>
       </c>
       <c r="S4" t="n">
-        <v>22.5</v>
+        <v>30</v>
       </c>
       <c r="T4" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="U4" t="n">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Jaime</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8.9</v>
+        <v>5.28</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -813,31 +813,31 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>25</v>
+        <v>33.3</v>
       </c>
       <c r="S5" t="n">
-        <v>33.3</v>
+        <v>50</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V5" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="W5" t="n">
         <v>1</v>
@@ -846,290 +846,290 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jurque</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>68.37</v>
+        <v>8.9</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>54.15</v>
+        <v>25</v>
       </c>
       <c r="S6" t="n">
-        <v>54.15</v>
+        <v>33.3</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Leonard</t>
+          <t>Jorge Marcos</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>40</v>
+      </c>
+      <c r="S7" t="n">
+        <v>40</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>10</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>41</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" t="n">
-        <v>18</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>20</v>
-      </c>
-      <c r="M7" t="n">
-        <v>15</v>
-      </c>
-      <c r="N7" t="n">
-        <v>38</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="T7" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>48.32</v>
-      </c>
-      <c r="V7" t="n">
-        <v>90</v>
-      </c>
       <c r="W7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lianes</t>
+          <t>Jurque</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>90.52</v>
+        <v>68.37</v>
       </c>
       <c r="H8" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N8" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
         <v>7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>37.08</v>
+        <v>43.32</v>
       </c>
       <c r="S8" t="n">
-        <v>28.75</v>
+        <v>43.32</v>
       </c>
       <c r="T8" t="n">
-        <v>37.08</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V8" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Marín</t>
+          <t>Leonard</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>41</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K9" t="n">
         <v>5</v>
       </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>47.82</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
+        <v>20</v>
+      </c>
+      <c r="M9" t="n">
         <v>15</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>11</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
       <c r="N9" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="R9" t="n">
-        <v>32.5</v>
+        <v>40.5</v>
       </c>
       <c r="S9" t="n">
-        <v>8.32</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>35</v>
+        <v>24.3</v>
       </c>
       <c r="U9" t="n">
-        <v>12.5</v>
+        <v>48.32</v>
       </c>
       <c r="V9" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="W9" t="n">
         <v>4</v>
@@ -1138,281 +1138,281 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Lianes</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
         <v>13</v>
       </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>71.72</v>
+        <v>110.67</v>
       </c>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="M10" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="O10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="R10" t="n">
-        <v>61.18</v>
+        <v>35.38</v>
       </c>
       <c r="S10" t="n">
-        <v>67.84999999999999</v>
+        <v>29.66</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.12</v>
       </c>
       <c r="U10" t="n">
-        <v>68.75</v>
+        <v>60</v>
       </c>
       <c r="V10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="W10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nico</t>
+          <t>Marín</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>57.2</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.66</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V11" t="n">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>12.17</v>
+        <v>81.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>50</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="S12" t="n">
-        <v>50</v>
+        <v>70.94</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="V12" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pete</t>
+          <t>Nico</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>32.3</v>
+        <v>13.05</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>26.67</v>
+        <v>25</v>
       </c>
       <c r="S13" t="n">
-        <v>26.67</v>
+        <v>25</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1421,117 +1421,117 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="W13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Raúl</t>
+          <t>Oscar</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>42.87</v>
+        <v>12.17</v>
       </c>
       <c r="H14" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.33</v>
+        <v>0.5</v>
       </c>
       <c r="R14" t="n">
-        <v>44.77</v>
+        <v>50</v>
       </c>
       <c r="S14" t="n">
-        <v>77.77</v>
+        <v>50</v>
       </c>
       <c r="T14" t="n">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>47.23</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="W14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rubén</t>
+          <t>Pete</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>41.75</v>
+        <v>51.28</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1540,110 +1540,256 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="S15" t="n">
-        <v>33.35</v>
+        <v>20</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="V15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Subra</t>
+          <t>Raúl</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>93.72</v>
+        <v>59.05</v>
       </c>
       <c r="H16" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I16" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="M16" t="n">
         <v>16</v>
       </c>
       <c r="N16" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O16" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="P16" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R16" t="n">
-        <v>53.75</v>
+        <v>39.35</v>
       </c>
       <c r="S16" t="n">
-        <v>55.42</v>
+        <v>58.32</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>38.12</v>
       </c>
       <c r="U16" t="n">
-        <v>63.25</v>
+        <v>35.42</v>
       </c>
       <c r="V16" t="n">
+        <v>7</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rubén</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>56.62</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="n">
+        <v>55.57</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>25</v>
+      </c>
+      <c r="V17" t="n">
+        <v>8</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Subra</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>27</v>
+      </c>
+      <c r="C18" t="n">
+        <v>28</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11</v>
+      </c>
+      <c r="G18" t="n">
+        <v>109.95</v>
+      </c>
+      <c r="H18" t="n">
+        <v>51</v>
+      </c>
+      <c r="I18" t="n">
+        <v>19</v>
+      </c>
+      <c r="J18" t="n">
+        <v>36</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>19</v>
+      </c>
+      <c r="N18" t="n">
+        <v>37</v>
+      </c>
+      <c r="O18" t="n">
+        <v>13</v>
+      </c>
+      <c r="P18" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>53</v>
+      </c>
+      <c r="S18" t="n">
+        <v>54.34</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="V18" t="n">
         <v>93</v>
       </c>
-      <c r="W16" t="n">
-        <v>4</v>
+      <c r="W18" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1709,28 +1855,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74.5</v>
+        <v>74.8</v>
       </c>
       <c r="B2" t="n">
-        <v>55.75</v>
+        <v>53.4</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>21.8</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>29.4</v>
       </c>
       <c r="E2" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="F2" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="G2" t="n">
-        <v>24</v>
+        <v>22.6</v>
       </c>
       <c r="H2" t="n">
-        <v>31.5</v>
+        <v>30.4</v>
       </c>
     </row>
   </sheetData>
